--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2735.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2735.xlsx
@@ -354,7 +354,7 @@
         <v>2.400903364519145</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.37057785587573</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2735.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2735.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160113804392843</v>
+        <v>0.9083871841430664</v>
       </c>
       <c r="B1">
-        <v>2.400903364519145</v>
+        <v>1.966000199317932</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.035072326660156</v>
       </c>
       <c r="D1">
-        <v>2.37057785587573</v>
+        <v>3.695548534393311</v>
       </c>
       <c r="E1">
-        <v>1.219924373748493</v>
+        <v>1.761780142784119</v>
       </c>
     </row>
   </sheetData>
